--- a/Analise de Requisitos/Aula12/atividade-semanal-ef.xlsx
+++ b/Analise de Requisitos/Aula12/atividade-semanal-ef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vayon24\Desktop\sptech\2-sem-SPTech\Analise de Requisitos\Aula12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A867B-C271-4850-8FE5-1A8FE6799458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E60C6FE-77D6-4404-8C54-F9DF81257BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1EFBD4C4-5AE6-49BB-9701-A84B551E138C}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
-  <si>
-    <t>Especificação Funcional Amigo PET</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Projeto:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sistema de Agendamento </t>
-  </si>
-  <si>
     <t>Integrante:</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>Especificação:</t>
   </si>
   <si>
-    <t>Tela de agendamento</t>
-  </si>
-  <si>
     <t>Identificação</t>
   </si>
   <si>
@@ -77,24 +68,44 @@
     <t>US007</t>
   </si>
   <si>
-    <t>A Função é cumprir a necessidade de agendamento do pet por meio de uma tela, para isso é necessário em que se possa ter a opção de escolher para o cadastro qual setor será necessário Pet Care ou VET, o veterinário, serviço, tempo disponível e a identificação do PET que será tratado. Também a exibição das consultas marcadas, remoção ou cancelamento de uma consulta e edição da consulta.</t>
-  </si>
-  <si>
-    <t>O usuário ao marcar consultas deve ter os campos: data agendada, setor, se é um retorno, data, tipo de serviço, valor, dados clínicos e aspectos físicos do PET, descrição do atendimento. Em cima disso, deve-se ter uma lista de todas as consultas marcadas pelo cliente, e se for uma tela de funcionário, exibir de todos os clientes. Também do lado da exibição um lápis de edição e um botão de remover, que tem as funcionalidades de editar as consultas e remover respectivamente</t>
-  </si>
-  <si>
-    <t>Sistema de monitoramento de componentes de hardware do robos cirurgiões</t>
-  </si>
-  <si>
-    <t>Tela de alertas do hardware associado à cirurgia</t>
+    <t>Tela de Gerenciamento de Cirurgia</t>
+  </si>
+  <si>
+    <t>Sistema de monitoramento de componentes de hardware de robôs cirurgiões</t>
+  </si>
+  <si>
+    <t>Tela de Alertas Associado a Cirurgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A função é cumprir a necessidade de uma análise completa do desempenho de hardware, ao mostrar todos os alertas críticos dos componentes e correlaciona-los a cirurgia no qual está fazendo o uso do rôbo cirurgião. A partir disso, precaver falhas dos componentes que podem comprometer a cirurgia.</t>
+  </si>
+  <si>
+    <t>Wireframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A função é cumprir a necessidade de agendamento de cirurgia na aplicação de monitoramento, por onde o hospital pode ter um maior controle dentro do sistema de quais cirurgias tiveram interrupções ou problemas associado aos componentes de hardware.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O usuário para poder fazer o gerenciamento de cirurgia (cadastro, edição, remoção e visualização), deve ter o cargo de atendente no sistema. A partir dessa validação, se tem o acesso à página, na parte superior da tela, possui todas as cirurgias cadastradas associadas a aquele hospital. Em baixo dessa visualização tem a aba de cadastrar novas cirurgias, com os seguintes campos: nome do médico, data de ínicio, duração, nome do paciente, sala, categoria cirurgia e risco. Além disso, deve ter dois botões ao lado da visualização de todas as cirurgias, para que ao clicar possa ser possível editar e remover as informações cirurgicas.  </t>
+  </si>
+  <si>
+    <t>O usuário para poder fazer ver os alertas de cada cirurgia, deve ter o cargo de Engenheiro de Noc no sistema. A partir dessa validação,se tem acesso à página, na parte superior esqueda possui todas as cirurgias que tiveram alertas relacionados aos componentes de hardware, e esses alertas são baseados nas métricas de cada componente. Dentro de cada opção de cirurgia atrelado ao alerta, tem-se a data da cirurgia, número robo cirurgião, número do dado do alerta, e o risco que aquela cirurgia possui. Ao clicar na cirurgia, na tela se tem todos os dados da cirurgia, tal como: nome do médico, data de ínicio, duração, nome do paciente, sala, categoria da cirurgia e risco. Em baixo disso um gráfico dos dados do componente no momento da cirurgia, com a opção de ver o tempo geral. Além disso deve-se ter um gráfico com a tendência linear do dado com base na dispersão do mesmo, e um aviso futuro de desempenho do componente ao úsuario.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,15 +174,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,18 +196,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,186 +526,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BA813D-1007-4EC9-A482-63D3216FD3DA}">
-  <dimension ref="E6:J27"/>
+  <dimension ref="D1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="62.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45243</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45243</v>
+      </c>
+    </row>
+    <row r="4" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="5:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>45243</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="4:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="12"/>
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="5:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="4:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="4:10" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="5:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>45243</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
+      <c r="F10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="4:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="4:10" ht="139.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="4:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="4:10" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E27:F27"/>
+  <mergeCells count="10">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>